--- a/Excel_v/tem/template.xlsx
+++ b/Excel_v/tem/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNITY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xamppp\htdocs\Project\Excel_v\tem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA621DA8-AA46-46A3-AE04-4E1B6FCD1E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9540A9A6-8C58-4E6B-8A91-2014AAD68C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06B3DC27-7FC3-4344-9E1E-153698B29F0C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>รายการที่</t>
   </si>
@@ -42,9 +42,6 @@
     <t>ตัวย่อคณะ</t>
   </si>
   <si>
-    <t>ชื่อชุดครุภัณฑ์</t>
-  </si>
-  <si>
     <t>ชื่อเรียกครุภัณฑ์</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>ราคาต่อหน่วย</t>
   </si>
   <si>
-    <t>ราคารวมชุด</t>
-  </si>
-  <si>
     <t>ประเภทเงินงบประมาณ</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>เลขที่เอกสาร</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ค้า</t>
+  </si>
+  <si>
+    <t>ชื่อ-สกุลผู้รับผิดชอบ</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951DEFF-D906-4B99-AE2A-0058F9F7D545}">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -539,7 +539,7 @@
     <col min="37" max="37" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,97 +556,100 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
